--- a/data/Data_Mahasiswa_Nama_NIM_Fix.xlsx
+++ b/data/Data_Mahasiswa_Nama_NIM_Fix.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project machine23ya\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyBook SAGA 10\Documents\git\Aplikasi_Kinerja_Mahasiswa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F90DE5-196E-4197-90BE-D500198A6B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3069,7 +3070,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3145,9 +3146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3185,9 +3186,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3222,7 +3223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3257,7 +3258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3430,21 +3431,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="33.88671875" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.90625" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3479,7 +3487,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>22821778</v>
       </c>
@@ -3514,7 +3522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>22945421</v>
       </c>
@@ -3549,7 +3557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>22328207</v>
       </c>
@@ -3584,7 +3592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>22662562</v>
       </c>
@@ -3619,7 +3627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>22755041</v>
       </c>
@@ -3654,7 +3662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>22377335</v>
       </c>
@@ -3689,7 +3697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>22791267</v>
       </c>
@@ -3724,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>22396142</v>
       </c>
@@ -3759,7 +3767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>22384408</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>22120062</v>
       </c>
@@ -3829,7 +3837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>22632872</v>
       </c>
@@ -3864,7 +3872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>22714863</v>
       </c>
@@ -3899,7 +3907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>22628959</v>
       </c>
@@ -3934,7 +3942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>22370037</v>
       </c>
@@ -3969,7 +3977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>22948584</v>
       </c>
@@ -4004,7 +4012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>22980152</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>22251224</v>
       </c>
@@ -4074,7 +4082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>22784690</v>
       </c>
@@ -4109,7 +4117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>22438290</v>
       </c>
@@ -4144,7 +4152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>22417606</v>
       </c>
@@ -4179,7 +4187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>22928501</v>
       </c>
@@ -4214,7 +4222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22209331</v>
       </c>
@@ -4249,7 +4257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22122062</v>
       </c>
@@ -4284,7 +4292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>22279004</v>
       </c>
@@ -4319,7 +4327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>22860589</v>
       </c>
@@ -4354,7 +4362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>22608179</v>
       </c>
@@ -4389,7 +4397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>22272009</v>
       </c>
@@ -4424,7 +4432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>22450191</v>
       </c>
@@ -4459,7 +4467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>22729868</v>
       </c>
@@ -4494,7 +4502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>22288024</v>
       </c>
@@ -4529,7 +4537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>22157190</v>
       </c>
@@ -4564,7 +4572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>22560653</v>
       </c>
@@ -4599,7 +4607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>22237958</v>
       </c>
@@ -4634,7 +4642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>22724858</v>
       </c>
@@ -4669,7 +4677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>22997680</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>22215489</v>
       </c>
@@ -4739,7 +4747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>22608211</v>
       </c>
@@ -4774,7 +4782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>22212627</v>
       </c>
@@ -4809,7 +4817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>22528098</v>
       </c>
@@ -4844,7 +4852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>22377772</v>
       </c>
@@ -4879,7 +4887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>22581057</v>
       </c>
@@ -4914,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>22961275</v>
       </c>
@@ -4949,7 +4957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>22577858</v>
       </c>
@@ -4984,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>22215219</v>
       </c>
@@ -5019,7 +5027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>22497962</v>
       </c>
@@ -5054,7 +5062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>22383583</v>
       </c>
@@ -5089,7 +5097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>22343959</v>
       </c>
@@ -5124,7 +5132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>22584204</v>
       </c>
@@ -5159,7 +5167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>22829628</v>
       </c>
@@ -5194,7 +5202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>22442417</v>
       </c>
@@ -5229,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>22512221</v>
       </c>
@@ -5264,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>22106328</v>
       </c>
@@ -5299,7 +5307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>22828689</v>
       </c>
@@ -5334,7 +5342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>22588726</v>
       </c>
@@ -5369,7 +5377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>22999501</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>22492685</v>
       </c>
@@ -5439,7 +5447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>22867538</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>22933604</v>
       </c>
@@ -5509,7 +5517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>22284205</v>
       </c>
@@ -5544,7 +5552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>22392777</v>
       </c>
@@ -5579,7 +5587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>22610011</v>
       </c>
@@ -5614,7 +5622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>22774822</v>
       </c>
@@ -5649,7 +5657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>22683493</v>
       </c>
@@ -5684,7 +5692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>22896881</v>
       </c>
@@ -5719,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>22807722</v>
       </c>
@@ -5754,7 +5762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>22812297</v>
       </c>
@@ -5789,7 +5797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>22913622</v>
       </c>
@@ -5824,7 +5832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>22245081</v>
       </c>
@@ -5859,7 +5867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>22209951</v>
       </c>
@@ -5894,7 +5902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>22815082</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>22887151</v>
       </c>
@@ -5964,7 +5972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>22968307</v>
       </c>
@@ -5999,7 +6007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>22710730</v>
       </c>
@@ -6034,7 +6042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>22702595</v>
       </c>
@@ -6069,7 +6077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>22509575</v>
       </c>
@@ -6104,7 +6112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>22474988</v>
       </c>
@@ -6139,7 +6147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>22206344</v>
       </c>
@@ -6174,7 +6182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>22139915</v>
       </c>
@@ -6209,7 +6217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>22589248</v>
       </c>
@@ -6244,7 +6252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>22830664</v>
       </c>
@@ -6279,7 +6287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>22226854</v>
       </c>
@@ -6314,7 +6322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>22908060</v>
       </c>
@@ -6349,7 +6357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>22723921</v>
       </c>
@@ -6384,7 +6392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>22361681</v>
       </c>
@@ -6419,7 +6427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>22243965</v>
       </c>
@@ -6454,7 +6462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>22797469</v>
       </c>
@@ -6489,7 +6497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>22274678</v>
       </c>
@@ -6524,7 +6532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>22765964</v>
       </c>
@@ -6559,7 +6567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>22683409</v>
       </c>
@@ -6594,7 +6602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>22706405</v>
       </c>
@@ -6629,7 +6637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>22904965</v>
       </c>
@@ -6664,7 +6672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>22429875</v>
       </c>
@@ -6699,7 +6707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>22744556</v>
       </c>
@@ -6734,7 +6742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>22100934</v>
       </c>
@@ -6769,7 +6777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>22838309</v>
       </c>
@@ -6804,7 +6812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>22651906</v>
       </c>
@@ -6839,7 +6847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>22822750</v>
       </c>
@@ -6874,7 +6882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>22981021</v>
       </c>
@@ -6909,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>22285777</v>
       </c>
@@ -6944,7 +6952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>22310082</v>
       </c>
@@ -6979,7 +6987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>22812825</v>
       </c>
@@ -7014,7 +7022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>22769392</v>
       </c>
@@ -7049,7 +7057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>22955554</v>
       </c>
@@ -7084,7 +7092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>22980106</v>
       </c>
@@ -7119,7 +7127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>22418488</v>
       </c>
@@ -7154,7 +7162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>22768288</v>
       </c>
@@ -7189,7 +7197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>22178206</v>
       </c>
@@ -7224,7 +7232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>22651326</v>
       </c>
@@ -7259,7 +7267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>22493486</v>
       </c>
@@ -7294,7 +7302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>22161686</v>
       </c>
@@ -7329,7 +7337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>22985057</v>
       </c>
@@ -7364,7 +7372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>22229819</v>
       </c>
@@ -7399,7 +7407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>22435922</v>
       </c>
@@ -7434,7 +7442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>22743197</v>
       </c>
@@ -7469,7 +7477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>22909037</v>
       </c>
@@ -7504,7 +7512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>22760788</v>
       </c>
@@ -7539,7 +7547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>22650264</v>
       </c>
@@ -7574,7 +7582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>22423771</v>
       </c>
@@ -7609,7 +7617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>22722012</v>
       </c>
@@ -7644,7 +7652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>22601198</v>
       </c>
@@ -7679,7 +7687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>22389756</v>
       </c>
@@ -7714,7 +7722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>22158652</v>
       </c>
@@ -7749,7 +7757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>22682462</v>
       </c>
@@ -7784,7 +7792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>22781425</v>
       </c>
@@ -7819,7 +7827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>22116618</v>
       </c>
@@ -7854,7 +7862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>22158816</v>
       </c>
@@ -7889,7 +7897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>22861876</v>
       </c>
@@ -7924,7 +7932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>22483545</v>
       </c>
@@ -7959,7 +7967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>22755386</v>
       </c>
@@ -7994,7 +8002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>22718459</v>
       </c>
@@ -8029,7 +8037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>22237205</v>
       </c>
@@ -8064,7 +8072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>22760038</v>
       </c>
@@ -8099,7 +8107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>22644702</v>
       </c>
@@ -8134,7 +8142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>22617793</v>
       </c>
@@ -8169,7 +8177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>22558967</v>
       </c>
@@ -8204,7 +8212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>22764764</v>
       </c>
@@ -8239,7 +8247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>22608737</v>
       </c>
@@ -8274,7 +8282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>22278046</v>
       </c>
@@ -8309,7 +8317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>22726858</v>
       </c>
@@ -8344,7 +8352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>22729601</v>
       </c>
@@ -8379,7 +8387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>22470577</v>
       </c>
@@ -8414,7 +8422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>22756475</v>
       </c>
@@ -8449,7 +8457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>22910490</v>
       </c>
@@ -8484,7 +8492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>22771818</v>
       </c>
@@ -8519,7 +8527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>22480749</v>
       </c>
@@ -8554,7 +8562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>22203654</v>
       </c>
@@ -8589,7 +8597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>22922345</v>
       </c>
@@ -8624,7 +8632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>22405174</v>
       </c>
@@ -8659,7 +8667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>22559192</v>
       </c>
@@ -8694,7 +8702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>22560684</v>
       </c>
@@ -8729,7 +8737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>22247738</v>
       </c>
@@ -8764,7 +8772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>22505360</v>
       </c>
@@ -8799,7 +8807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>22676768</v>
       </c>
@@ -8834,7 +8842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>22145529</v>
       </c>
@@ -8869,7 +8877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>22982738</v>
       </c>
@@ -8904,7 +8912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>22667164</v>
       </c>
@@ -8939,7 +8947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>22373034</v>
       </c>
@@ -8974,7 +8982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>22386763</v>
       </c>
@@ -9009,7 +9017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>22795762</v>
       </c>
@@ -9044,7 +9052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>22264389</v>
       </c>
@@ -9079,7 +9087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>22832478</v>
       </c>
@@ -9114,7 +9122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>22648994</v>
       </c>
@@ -9149,7 +9157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>22663171</v>
       </c>
@@ -9184,7 +9192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>22817537</v>
       </c>
@@ -9219,7 +9227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>22830475</v>
       </c>
@@ -9254,7 +9262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>22289920</v>
       </c>
@@ -9289,7 +9297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>22220469</v>
       </c>
@@ -9324,7 +9332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>22232078</v>
       </c>
@@ -9359,7 +9367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>22419161</v>
       </c>
@@ -9394,7 +9402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>22462265</v>
       </c>
@@ -9429,7 +9437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>22578738</v>
       </c>
@@ -9464,7 +9472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>22654920</v>
       </c>
@@ -9499,7 +9507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>22434610</v>
       </c>
@@ -9534,7 +9542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>22247879</v>
       </c>
@@ -9569,7 +9577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>22261045</v>
       </c>
@@ -9604,7 +9612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>22932593</v>
       </c>
@@ -9639,7 +9647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>22503898</v>
       </c>
@@ -9674,7 +9682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>22948372</v>
       </c>
@@ -9709,7 +9717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>22230045</v>
       </c>
@@ -9744,7 +9752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>22689297</v>
       </c>
@@ -9779,7 +9787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>22196291</v>
       </c>
@@ -9814,7 +9822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>22803148</v>
       </c>
@@ -9849,7 +9857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>22451477</v>
       </c>
@@ -9884,7 +9892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>22638583</v>
       </c>
@@ -9919,7 +9927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>22559018</v>
       </c>
@@ -9954,7 +9962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>22202069</v>
       </c>
@@ -9989,7 +9997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>22199893</v>
       </c>
@@ -10024,7 +10032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>22269062</v>
       </c>
@@ -10059,7 +10067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>22397686</v>
       </c>
@@ -10094,7 +10102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>22428061</v>
       </c>
@@ -10129,7 +10137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>22304758</v>
       </c>
@@ -10164,7 +10172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>22414171</v>
       </c>
@@ -10199,7 +10207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>22639514</v>
       </c>
@@ -10234,7 +10242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>22641170</v>
       </c>
@@ -10269,7 +10277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>22593478</v>
       </c>
@@ -10304,7 +10312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>22325849</v>
       </c>
@@ -10339,7 +10347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>22272763</v>
       </c>
@@ -10374,7 +10382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>22666840</v>
       </c>
@@ -10409,7 +10417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>22617384</v>
       </c>
@@ -10444,7 +10452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>22888080</v>
       </c>
@@ -10479,7 +10487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>22522112</v>
       </c>
@@ -10514,7 +10522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>22683837</v>
       </c>
@@ -10549,7 +10557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>22393516</v>
       </c>
@@ -10584,7 +10592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>22809029</v>
       </c>
@@ -10619,7 +10627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>22891952</v>
       </c>
@@ -10654,7 +10662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>22579026</v>
       </c>
@@ -10689,7 +10697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>22329509</v>
       </c>
@@ -10724,7 +10732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>22642462</v>
       </c>
@@ -10759,7 +10767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>22886338</v>
       </c>
@@ -10794,7 +10802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>22366332</v>
       </c>
@@ -10829,7 +10837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>22202292</v>
       </c>
@@ -10864,7 +10872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>22521468</v>
       </c>
@@ -10899,7 +10907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>22799112</v>
       </c>
@@ -10934,7 +10942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>22499321</v>
       </c>
@@ -10969,7 +10977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>22717651</v>
       </c>
@@ -11004,7 +11012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>22639049</v>
       </c>
@@ -11039,7 +11047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>22186653</v>
       </c>
@@ -11074,7 +11082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>22239431</v>
       </c>
@@ -11109,7 +11117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>22445581</v>
       </c>
@@ -11144,7 +11152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>22891048</v>
       </c>
@@ -11179,7 +11187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>22586965</v>
       </c>
@@ -11214,7 +11222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>22653832</v>
       </c>
@@ -11249,7 +11257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>22775515</v>
       </c>
@@ -11284,7 +11292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>22137151</v>
       </c>
@@ -11319,7 +11327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>22658780</v>
       </c>
@@ -11354,7 +11362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>22976793</v>
       </c>
@@ -11389,7 +11397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>22150752</v>
       </c>
@@ -11424,7 +11432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>22331645</v>
       </c>
@@ -11459,7 +11467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>22785127</v>
       </c>
@@ -11494,7 +11502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>22291254</v>
       </c>
@@ -11529,7 +11537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>22311949</v>
       </c>
@@ -11564,7 +11572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>22938662</v>
       </c>
@@ -11599,7 +11607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>22180415</v>
       </c>
@@ -11634,7 +11642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>22602026</v>
       </c>
@@ -11669,7 +11677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>22155589</v>
       </c>
@@ -11704,7 +11712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>22183010</v>
       </c>
@@ -11739,7 +11747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>22534880</v>
       </c>
@@ -11774,7 +11782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>22883576</v>
       </c>
@@ -11809,7 +11817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>22258760</v>
       </c>
@@ -11844,7 +11852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>22671716</v>
       </c>
@@ -11879,7 +11887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>22578532</v>
       </c>
@@ -11914,7 +11922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>22506059</v>
       </c>
@@ -11949,7 +11957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>22113000</v>
       </c>
@@ -11984,7 +11992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>22261609</v>
       </c>
@@ -12019,7 +12027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>22602083</v>
       </c>
@@ -12054,7 +12062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>22330706</v>
       </c>
@@ -12089,7 +12097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>22855303</v>
       </c>
@@ -12124,7 +12132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>22418579</v>
       </c>
@@ -12159,7 +12167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>22448614</v>
       </c>
@@ -12194,7 +12202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>22859859</v>
       </c>
@@ -12229,7 +12237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>22517231</v>
       </c>
@@ -12264,7 +12272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>22504837</v>
       </c>
@@ -12299,7 +12307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>22471054</v>
       </c>
@@ -12334,7 +12342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>22668178</v>
       </c>
@@ -12369,7 +12377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>22497536</v>
       </c>
@@ -12404,7 +12412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>22153483</v>
       </c>
@@ -12439,7 +12447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>22185148</v>
       </c>
@@ -12474,7 +12482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>22901580</v>
       </c>
@@ -12509,7 +12517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>22379995</v>
       </c>
@@ -12544,7 +12552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>22277580</v>
       </c>
@@ -12579,7 +12587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>22549133</v>
       </c>
@@ -12614,7 +12622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>22133356</v>
       </c>
@@ -12649,7 +12657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>22274128</v>
       </c>
@@ -12684,7 +12692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>22737949</v>
       </c>
@@ -12719,7 +12727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>22154256</v>
       </c>
@@ -12754,7 +12762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>22879366</v>
       </c>
@@ -12789,7 +12797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>22863576</v>
       </c>
@@ -12824,7 +12832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>22865519</v>
       </c>
@@ -12859,7 +12867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>22759577</v>
       </c>
@@ -12894,7 +12902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>22613266</v>
       </c>
@@ -12929,7 +12937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>22824263</v>
       </c>
@@ -12964,7 +12972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>22669412</v>
       </c>
@@ -12999,7 +13007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>22768394</v>
       </c>
@@ -13034,7 +13042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>22591050</v>
       </c>
@@ -13069,7 +13077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>22344612</v>
       </c>
@@ -13104,7 +13112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>22588963</v>
       </c>
@@ -13139,7 +13147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>22514814</v>
       </c>
@@ -13174,7 +13182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>22667384</v>
       </c>
@@ -13209,7 +13217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>22910614</v>
       </c>
@@ -13244,7 +13252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>22914124</v>
       </c>
@@ -13279,7 +13287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>22925035</v>
       </c>
@@ -13314,7 +13322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>22418625</v>
       </c>
@@ -13349,7 +13357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>22298573</v>
       </c>
@@ -13384,7 +13392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>22690121</v>
       </c>
@@ -13419,7 +13427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>22609646</v>
       </c>
@@ -13454,7 +13462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>22413594</v>
       </c>
@@ -13489,7 +13497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>22506054</v>
       </c>
@@ -13524,7 +13532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>22223484</v>
       </c>
@@ -13559,7 +13567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>22713338</v>
       </c>
@@ -13594,7 +13602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>22321215</v>
       </c>
@@ -13629,7 +13637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>22821069</v>
       </c>
@@ -13664,7 +13672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>22167057</v>
       </c>
@@ -13699,7 +13707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>22184312</v>
       </c>
@@ -13734,7 +13742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>22570309</v>
       </c>
@@ -13769,7 +13777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>22716566</v>
       </c>
@@ -13804,7 +13812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>22844437</v>
       </c>
@@ -13839,7 +13847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>22695156</v>
       </c>
@@ -13874,7 +13882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>22962682</v>
       </c>
@@ -13909,7 +13917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>22968869</v>
       </c>
@@ -13944,7 +13952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>22815404</v>
       </c>
@@ -13979,7 +13987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>22495534</v>
       </c>
@@ -14014,7 +14022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>22980588</v>
       </c>
@@ -14049,7 +14057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>22118636</v>
       </c>
@@ -14084,7 +14092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>22901861</v>
       </c>
@@ -14119,7 +14127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>22466442</v>
       </c>
@@ -14154,7 +14162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>22502561</v>
       </c>
@@ -14189,7 +14197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>22497387</v>
       </c>
@@ -14224,7 +14232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>22342290</v>
       </c>
@@ -14259,7 +14267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>22400879</v>
       </c>
@@ -14294,7 +14302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>22141763</v>
       </c>
@@ -14329,7 +14337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>22291647</v>
       </c>
@@ -14364,7 +14372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>22505122</v>
       </c>
@@ -14399,7 +14407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>22172594</v>
       </c>
@@ -14434,7 +14442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>22836273</v>
       </c>
@@ -14469,7 +14477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>22267729</v>
       </c>
@@ -14504,7 +14512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>22991050</v>
       </c>
@@ -14539,7 +14547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>22897355</v>
       </c>
@@ -14574,7 +14582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>22733209</v>
       </c>
@@ -14609,7 +14617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>22462444</v>
       </c>
@@ -14644,7 +14652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>22614577</v>
       </c>
@@ -14679,7 +14687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>22612349</v>
       </c>
@@ -14714,7 +14722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>22380889</v>
       </c>
@@ -14749,7 +14757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>22991697</v>
       </c>
@@ -14784,7 +14792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>22220372</v>
       </c>
@@ -14819,7 +14827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>22563233</v>
       </c>
@@ -14854,7 +14862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>22551222</v>
       </c>
@@ -14889,7 +14897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>22151760</v>
       </c>
@@ -14924,7 +14932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>22465633</v>
       </c>
@@ -14959,7 +14967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>22691075</v>
       </c>
@@ -14994,7 +15002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>22988543</v>
       </c>
@@ -15029,7 +15037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>22231156</v>
       </c>
@@ -15064,7 +15072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>22597530</v>
       </c>
@@ -15099,7 +15107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>22978411</v>
       </c>
@@ -15134,7 +15142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>22228478</v>
       </c>
@@ -15169,7 +15177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>22363194</v>
       </c>
@@ -15204,7 +15212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>22210116</v>
       </c>
@@ -15239,7 +15247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>22191729</v>
       </c>
@@ -15274,7 +15282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>22221463</v>
       </c>
@@ -15309,7 +15317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>22593608</v>
       </c>
@@ -15344,7 +15352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>22321452</v>
       </c>
@@ -15379,7 +15387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>22913671</v>
       </c>
@@ -15414,7 +15422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>22720921</v>
       </c>
@@ -15449,7 +15457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>22288864</v>
       </c>
@@ -15484,7 +15492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>22652064</v>
       </c>
@@ -15519,7 +15527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>22749535</v>
       </c>
@@ -15554,7 +15562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>22538859</v>
       </c>
@@ -15589,7 +15597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>22533849</v>
       </c>
@@ -15624,7 +15632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>22306810</v>
       </c>
@@ -15659,7 +15667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>22527141</v>
       </c>
@@ -15694,7 +15702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>22493290</v>
       </c>
@@ -15729,7 +15737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>22140066</v>
       </c>
@@ -15764,7 +15772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>22525584</v>
       </c>
@@ -15799,7 +15807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>22528124</v>
       </c>
@@ -15834,7 +15842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>22453376</v>
       </c>
@@ -15869,7 +15877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>22507725</v>
       </c>
@@ -15904,7 +15912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>22786281</v>
       </c>
@@ -15939,7 +15947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>22401009</v>
       </c>
@@ -15974,7 +15982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>22128278</v>
       </c>
@@ -16009,7 +16017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>22160500</v>
       </c>
@@ -16044,7 +16052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>22561856</v>
       </c>
@@ -16079,7 +16087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>22264455</v>
       </c>
@@ -16114,7 +16122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>22280280</v>
       </c>
@@ -16149,7 +16157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>22661665</v>
       </c>
@@ -16184,7 +16192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>22197995</v>
       </c>
@@ -16219,7 +16227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>22837758</v>
       </c>
@@ -16254,7 +16262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>22924568</v>
       </c>
@@ -16289,7 +16297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>22353178</v>
       </c>
@@ -16324,7 +16332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>22283928</v>
       </c>
@@ -16359,7 +16367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>22793844</v>
       </c>
@@ -16394,7 +16402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>22997599</v>
       </c>
@@ -16429,7 +16437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>22942326</v>
       </c>
@@ -16464,7 +16472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>22941585</v>
       </c>
@@ -16499,7 +16507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>22173489</v>
       </c>
@@ -16534,7 +16542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>22224133</v>
       </c>
@@ -16569,7 +16577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>22692323</v>
       </c>
@@ -16604,7 +16612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>22384039</v>
       </c>
@@ -16639,7 +16647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>22473404</v>
       </c>
@@ -16674,7 +16682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>22390761</v>
       </c>
@@ -16709,7 +16717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>22405642</v>
       </c>
@@ -16744,7 +16752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>22920801</v>
       </c>
@@ -16779,7 +16787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>22906988</v>
       </c>
@@ -16814,7 +16822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>22392208</v>
       </c>
@@ -16849,7 +16857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>22298787</v>
       </c>
@@ -16884,7 +16892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>22735361</v>
       </c>
@@ -16919,7 +16927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>22856039</v>
       </c>
@@ -16954,7 +16962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>22250587</v>
       </c>
@@ -16989,7 +16997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>22738646</v>
       </c>
@@ -17024,7 +17032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>22182453</v>
       </c>
@@ -17059,7 +17067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>22857077</v>
       </c>
@@ -17094,7 +17102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>22688739</v>
       </c>
@@ -17129,7 +17137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>22447126</v>
       </c>
@@ -17164,7 +17172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>22582113</v>
       </c>
@@ -17199,7 +17207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>22368128</v>
       </c>
@@ -17234,7 +17242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>22903244</v>
       </c>
@@ -17269,7 +17277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>22539306</v>
       </c>
@@ -17304,7 +17312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>22771859</v>
       </c>
@@ -17339,7 +17347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>22849326</v>
       </c>
@@ -17374,7 +17382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>22643567</v>
       </c>
@@ -17409,7 +17417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>22784277</v>
       </c>
@@ -17444,7 +17452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>22537483</v>
       </c>
@@ -17479,7 +17487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>22581333</v>
       </c>
@@ -17514,7 +17522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>22782815</v>
       </c>
@@ -17549,7 +17557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>22488364</v>
       </c>
@@ -17584,7 +17592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>22628972</v>
       </c>
@@ -17619,7 +17627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>22176537</v>
       </c>
@@ -17654,7 +17662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>22739664</v>
       </c>
@@ -17689,7 +17697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>22141164</v>
       </c>
@@ -17724,7 +17732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>22464617</v>
       </c>
@@ -17759,7 +17767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>22933175</v>
       </c>
@@ -17794,7 +17802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>22864196</v>
       </c>
@@ -17829,7 +17837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>22468338</v>
       </c>
@@ -17864,7 +17872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>22355475</v>
       </c>
@@ -17899,7 +17907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>22143308</v>
       </c>
@@ -17934,7 +17942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>22422986</v>
       </c>
@@ -17969,7 +17977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>22947938</v>
       </c>
@@ -18004,7 +18012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>22315592</v>
       </c>
@@ -18039,7 +18047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>22619276</v>
       </c>
@@ -18074,7 +18082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>22930301</v>
       </c>
@@ -18109,7 +18117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>22977845</v>
       </c>
@@ -18144,7 +18152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>22766956</v>
       </c>
@@ -18179,7 +18187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>22478577</v>
       </c>
@@ -18214,7 +18222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>22679630</v>
       </c>
@@ -18249,7 +18257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>22816824</v>
       </c>
@@ -18284,7 +18292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>22247537</v>
       </c>
@@ -18319,7 +18327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>22833308</v>
       </c>
@@ -18354,7 +18362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>22348427</v>
       </c>
@@ -18389,7 +18397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>22877011</v>
       </c>
@@ -18424,7 +18432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>22329083</v>
       </c>
@@ -18459,7 +18467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>22533963</v>
       </c>
@@ -18494,7 +18502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>22336625</v>
       </c>
@@ -18529,7 +18537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>22379023</v>
       </c>
@@ -18564,7 +18572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>22239613</v>
       </c>
@@ -18599,7 +18607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>22804814</v>
       </c>
@@ -18634,7 +18642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>22343480</v>
       </c>
@@ -18669,7 +18677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>22741549</v>
       </c>
@@ -18704,7 +18712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>22390778</v>
       </c>
@@ -18739,7 +18747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>22932837</v>
       </c>
@@ -18774,7 +18782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>22804964</v>
       </c>
@@ -18809,7 +18817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>22376672</v>
       </c>
@@ -18844,7 +18852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>22100137</v>
       </c>
@@ -18879,7 +18887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>22865504</v>
       </c>
@@ -18914,7 +18922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>22299116</v>
       </c>
@@ -18949,7 +18957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>22605338</v>
       </c>
@@ -18984,7 +18992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>22102800</v>
       </c>
@@ -19019,7 +19027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>22738037</v>
       </c>
@@ -19054,7 +19062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>22397599</v>
       </c>
@@ -19089,7 +19097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>22935148</v>
       </c>
@@ -19124,7 +19132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>22602932</v>
       </c>
@@ -19159,7 +19167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>22205115</v>
       </c>
@@ -19194,7 +19202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>22193435</v>
       </c>
@@ -19229,7 +19237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>22688497</v>
       </c>
@@ -19264,7 +19272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>22336562</v>
       </c>
@@ -19299,7 +19307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>22854062</v>
       </c>
@@ -19334,7 +19342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>22120790</v>
       </c>
@@ -19369,7 +19377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>22559310</v>
       </c>
@@ -19404,7 +19412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>22432466</v>
       </c>
@@ -19439,7 +19447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>22256122</v>
       </c>
@@ -19474,7 +19482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>22125380</v>
       </c>
@@ -19509,7 +19517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>22797509</v>
       </c>
@@ -19544,7 +19552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>22911297</v>
       </c>
@@ -19579,7 +19587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>22615008</v>
       </c>
@@ -19614,7 +19622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>22194576</v>
       </c>
@@ -19649,7 +19657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>22226601</v>
       </c>
@@ -19684,7 +19692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>22577423</v>
       </c>
@@ -19719,7 +19727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>22204081</v>
       </c>
@@ -19754,7 +19762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>22549902</v>
       </c>
@@ -19789,7 +19797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>22348526</v>
       </c>
@@ -19824,7 +19832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>22822713</v>
       </c>
@@ -19859,7 +19867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>22178404</v>
       </c>
@@ -19894,7 +19902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>22123511</v>
       </c>
@@ -19929,7 +19937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>22563110</v>
       </c>
@@ -19964,7 +19972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>22138756</v>
       </c>
@@ -19999,7 +20007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>22287038</v>
       </c>
@@ -20034,7 +20042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>22815891</v>
       </c>
@@ -20069,7 +20077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>22557233</v>
       </c>
@@ -20104,7 +20112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>22927983</v>
       </c>
@@ -20139,7 +20147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>22866527</v>
       </c>
@@ -20174,7 +20182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>22360000</v>
       </c>
@@ -20209,7 +20217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>22297147</v>
       </c>
@@ -20244,7 +20252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>22834833</v>
       </c>
@@ -20279,7 +20287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>22675753</v>
       </c>
@@ -20314,7 +20322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>22244028</v>
       </c>
@@ -20349,7 +20357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>22719779</v>
       </c>
@@ -20384,7 +20392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>22649560</v>
       </c>
@@ -20419,7 +20427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>22719004</v>
       </c>
@@ -20454,7 +20462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>22606416</v>
       </c>
@@ -20489,7 +20497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>22611727</v>
       </c>
@@ -20524,7 +20532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>22406941</v>
       </c>
@@ -20559,7 +20567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>22905364</v>
       </c>
@@ -20594,7 +20602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>22893380</v>
       </c>
@@ -20629,7 +20637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>22819168</v>
       </c>
@@ -20664,7 +20672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>22706485</v>
       </c>
@@ -20699,7 +20707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>22661014</v>
       </c>
@@ -20734,7 +20742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>22544343</v>
       </c>
@@ -20769,7 +20777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>22388212</v>
       </c>
@@ -20804,7 +20812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>22695603</v>
       </c>
@@ -20839,7 +20847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>22594712</v>
       </c>
@@ -20874,7 +20882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>22517259</v>
       </c>
@@ -20909,7 +20917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>22657476</v>
       </c>
@@ -20944,7 +20952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>22671392</v>
       </c>
@@ -20979,7 +20987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>22311626</v>
       </c>
@@ -21014,7 +21022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>22246198</v>
       </c>
@@ -21049,7 +21057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>22617624</v>
       </c>
@@ -21084,7 +21092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>22591787</v>
       </c>
@@ -21119,7 +21127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>22607834</v>
       </c>
@@ -21154,7 +21162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>22231958</v>
       </c>
@@ -21189,7 +21197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>22445130</v>
       </c>
@@ -21224,7 +21232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>22394471</v>
       </c>
@@ -21259,7 +21267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>22656363</v>
       </c>
@@ -21294,7 +21302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>22491702</v>
       </c>
@@ -21329,7 +21337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>22454609</v>
       </c>
@@ -21364,7 +21372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>22750027</v>
       </c>
@@ -21399,7 +21407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>22911427</v>
       </c>
@@ -21434,7 +21442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>22884053</v>
       </c>
@@ -21469,7 +21477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>22656398</v>
       </c>
@@ -21504,7 +21512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>22832273</v>
       </c>
@@ -21539,7 +21547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>22709009</v>
       </c>
@@ -21574,7 +21582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>22491323</v>
       </c>
@@ -21609,7 +21617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>22711253</v>
       </c>
@@ -21644,7 +21652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>22958526</v>
       </c>
@@ -21679,7 +21687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>22610588</v>
       </c>
@@ -21714,7 +21722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>22424922</v>
       </c>
@@ -21749,7 +21757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>22675115</v>
       </c>
@@ -21784,7 +21792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>22169348</v>
       </c>
@@ -21819,7 +21827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>22903778</v>
       </c>
@@ -21854,7 +21862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>22206426</v>
       </c>
@@ -21889,7 +21897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>22795995</v>
       </c>
@@ -21924,7 +21932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>22174575</v>
       </c>
@@ -21959,7 +21967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>22687828</v>
       </c>
@@ -21994,7 +22002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>22935718</v>
       </c>
@@ -22029,7 +22037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>22887740</v>
       </c>
@@ -22064,7 +22072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>22758438</v>
       </c>
@@ -22099,7 +22107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>22871098</v>
       </c>
@@ -22134,7 +22142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>22913024</v>
       </c>
@@ -22169,7 +22177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>22121901</v>
       </c>
@@ -22204,7 +22212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>22323286</v>
       </c>
@@ -22239,7 +22247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>22496602</v>
       </c>
@@ -22274,7 +22282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>22346842</v>
       </c>
@@ -22309,7 +22317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>22195872</v>
       </c>
@@ -22344,7 +22352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>22977520</v>
       </c>
@@ -22379,7 +22387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>22652713</v>
       </c>
@@ -22414,7 +22422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>22681173</v>
       </c>
@@ -22449,7 +22457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>22581689</v>
       </c>
@@ -22484,7 +22492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>22739314</v>
       </c>
@@ -22519,7 +22527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>22692166</v>
       </c>
@@ -22554,7 +22562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>22254728</v>
       </c>
@@ -22589,7 +22597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>22256892</v>
       </c>
@@ -22624,7 +22632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>22377946</v>
       </c>
@@ -22659,7 +22667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>22989258</v>
       </c>
@@ -22694,7 +22702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>22798003</v>
       </c>
@@ -22729,7 +22737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>22851209</v>
       </c>
@@ -22764,7 +22772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>22372678</v>
       </c>
@@ -22799,7 +22807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>22897539</v>
       </c>
@@ -22834,7 +22842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>22591288</v>
       </c>
@@ -22869,7 +22877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>22162828</v>
       </c>
@@ -22904,7 +22912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>22614012</v>
       </c>
@@ -22939,7 +22947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>22277147</v>
       </c>
@@ -22974,7 +22982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>22397447</v>
       </c>
@@ -23009,7 +23017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>22236141</v>
       </c>
@@ -23044,7 +23052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>22687746</v>
       </c>
@@ -23079,7 +23087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>22937906</v>
       </c>
@@ -23114,7 +23122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>22949831</v>
       </c>
@@ -23149,7 +23157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>22528206</v>
       </c>
@@ -23184,7 +23192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>22933290</v>
       </c>
@@ -23219,7 +23227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>22253230</v>
       </c>
@@ -23254,7 +23262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>22669384</v>
       </c>
@@ -23289,7 +23297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>22686175</v>
       </c>
@@ -23324,7 +23332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>22643236</v>
       </c>
@@ -23359,7 +23367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>22321578</v>
       </c>
@@ -23394,7 +23402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>22621072</v>
       </c>
@@ -23429,7 +23437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>22363674</v>
       </c>
@@ -23464,7 +23472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>22603783</v>
       </c>
@@ -23499,7 +23507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>22941029</v>
       </c>
@@ -23534,7 +23542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>22171158</v>
       </c>
@@ -23569,7 +23577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>22104417</v>
       </c>
@@ -23604,7 +23612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>22449296</v>
       </c>
@@ -23639,7 +23647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>22778773</v>
       </c>
@@ -23674,7 +23682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>22121680</v>
       </c>
@@ -23709,7 +23717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>22800262</v>
       </c>
@@ -23744,7 +23752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>22261802</v>
       </c>
@@ -23779,7 +23787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>22353179</v>
       </c>
@@ -23814,7 +23822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>22521893</v>
       </c>
@@ -23849,7 +23857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>22906114</v>
       </c>
@@ -23884,7 +23892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>22423766</v>
       </c>
@@ -23919,7 +23927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>22484273</v>
       </c>
@@ -23954,7 +23962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>22788026</v>
       </c>
@@ -23989,7 +23997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>22476806</v>
       </c>
@@ -24024,7 +24032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>22949406</v>
       </c>
@@ -24059,7 +24067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>22521652</v>
       </c>
@@ -24094,7 +24102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>22680031</v>
       </c>
@@ -24129,7 +24137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>22855300</v>
       </c>
@@ -24164,7 +24172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>22747286</v>
       </c>
@@ -24199,7 +24207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>22905798</v>
       </c>
@@ -24234,7 +24242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>22860269</v>
       </c>
@@ -24269,7 +24277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>22563689</v>
       </c>
@@ -24304,7 +24312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>22981216</v>
       </c>
@@ -24339,7 +24347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>22341876</v>
       </c>
@@ -24374,7 +24382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>22322863</v>
       </c>
@@ -24409,7 +24417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>22705706</v>
       </c>
@@ -24444,7 +24452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>22756641</v>
       </c>
@@ -24479,7 +24487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>22306224</v>
       </c>
@@ -24514,7 +24522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>22712076</v>
       </c>
@@ -24549,7 +24557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>22551771</v>
       </c>
@@ -24584,7 +24592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>22924332</v>
       </c>
@@ -24619,7 +24627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>22491231</v>
       </c>
@@ -24654,7 +24662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>22904182</v>
       </c>
@@ -24689,7 +24697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>22590256</v>
       </c>
@@ -24724,7 +24732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>22851645</v>
       </c>
@@ -24759,7 +24767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>22939105</v>
       </c>
@@ -24794,7 +24802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>22653954</v>
       </c>
@@ -24829,7 +24837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>22899484</v>
       </c>
@@ -24864,7 +24872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>22771542</v>
       </c>
@@ -24899,7 +24907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>22138346</v>
       </c>
@@ -24934,7 +24942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>22713742</v>
       </c>
@@ -24969,7 +24977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>22223410</v>
       </c>
@@ -25004,7 +25012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>22778525</v>
       </c>
@@ -25039,7 +25047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>22614981</v>
       </c>
@@ -25074,7 +25082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>22264173</v>
       </c>
@@ -25109,7 +25117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>22334620</v>
       </c>
@@ -25144,7 +25152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>22830031</v>
       </c>
@@ -25179,7 +25187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>22856683</v>
       </c>
@@ -25214,7 +25222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>22623286</v>
       </c>
@@ -25249,7 +25257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>22986550</v>
       </c>
@@ -25284,7 +25292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>22171613</v>
       </c>
@@ -25319,7 +25327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>22442498</v>
       </c>
@@ -25354,7 +25362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>22985463</v>
       </c>
@@ -25389,7 +25397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>22278084</v>
       </c>
@@ -25424,7 +25432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>22616350</v>
       </c>
@@ -25459,7 +25467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>22209453</v>
       </c>
@@ -25494,7 +25502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>22148054</v>
       </c>
@@ -25529,7 +25537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>22309959</v>
       </c>
@@ -25564,7 +25572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>22166309</v>
       </c>
@@ -25599,7 +25607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>22804972</v>
       </c>
@@ -25634,7 +25642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>22733611</v>
       </c>
@@ -25669,7 +25677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>22649265</v>
       </c>
@@ -25704,7 +25712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>22162130</v>
       </c>
@@ -25739,7 +25747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>22755910</v>
       </c>
@@ -25774,7 +25782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>22910975</v>
       </c>
@@ -25809,7 +25817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>22999079</v>
       </c>
@@ -25844,7 +25852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>22228791</v>
       </c>
@@ -25879,7 +25887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>22933511</v>
       </c>
@@ -25914,7 +25922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>22135631</v>
       </c>
@@ -25949,7 +25957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>22629022</v>
       </c>
@@ -25984,7 +25992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>22146684</v>
       </c>
@@ -26019,7 +26027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>22928342</v>
       </c>
@@ -26054,7 +26062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>22816891</v>
       </c>
@@ -26089,7 +26097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>22727713</v>
       </c>
@@ -26124,7 +26132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>22955754</v>
       </c>
@@ -26159,7 +26167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>22589079</v>
       </c>
@@ -26194,7 +26202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>22261805</v>
       </c>
@@ -26229,7 +26237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>22655210</v>
       </c>
@@ -26264,7 +26272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>22397465</v>
       </c>
@@ -26299,7 +26307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>22135203</v>
       </c>
@@ -26334,7 +26342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>22427787</v>
       </c>
@@ -26369,7 +26377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>22654104</v>
       </c>
@@ -26404,7 +26412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>22364457</v>
       </c>
@@ -26439,7 +26447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>22788253</v>
       </c>
@@ -26474,7 +26482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>22804711</v>
       </c>
@@ -26509,7 +26517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>22700661</v>
       </c>
@@ -26544,7 +26552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>22966898</v>
       </c>
@@ -26579,7 +26587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>22683219</v>
       </c>
@@ -26614,7 +26622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>22420368</v>
       </c>
@@ -26649,7 +26657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>22560961</v>
       </c>
@@ -26684,7 +26692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>22721517</v>
       </c>
@@ -26719,7 +26727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>22922271</v>
       </c>
@@ -26754,7 +26762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>22338767</v>
       </c>
@@ -26789,7 +26797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>22459781</v>
       </c>
@@ -26824,7 +26832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>22503133</v>
       </c>
@@ -26859,7 +26867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>22405170</v>
       </c>
@@ -26894,7 +26902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>22283185</v>
       </c>
@@ -26929,7 +26937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>22773640</v>
       </c>
@@ -26964,7 +26972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>22706770</v>
       </c>
@@ -26999,7 +27007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>22246451</v>
       </c>
@@ -27034,7 +27042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>22252592</v>
       </c>
@@ -27069,7 +27077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>22923178</v>
       </c>
@@ -27104,7 +27112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>22817996</v>
       </c>
@@ -27139,7 +27147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>22875167</v>
       </c>
@@ -27174,7 +27182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>22669817</v>
       </c>
@@ -27209,7 +27217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>22482201</v>
       </c>
@@ -27244,7 +27252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>22900921</v>
       </c>
@@ -27279,7 +27287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>22650025</v>
       </c>
@@ -27314,7 +27322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>22986588</v>
       </c>
@@ -27349,7 +27357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>22277605</v>
       </c>
@@ -27384,7 +27392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>22693400</v>
       </c>
@@ -27419,7 +27427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>22624216</v>
       </c>
@@ -27454,7 +27462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>22317335</v>
       </c>
@@ -27489,7 +27497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>22214146</v>
       </c>
@@ -27524,7 +27532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>22245040</v>
       </c>
@@ -27559,7 +27567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>22586051</v>
       </c>
@@ -27594,7 +27602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>22308831</v>
       </c>
@@ -27629,7 +27637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>22829189</v>
       </c>
@@ -27664,7 +27672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>22655113</v>
       </c>
@@ -27699,7 +27707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>22330781</v>
       </c>
@@ -27734,7 +27742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>22602407</v>
       </c>
@@ -27769,7 +27777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>22899333</v>
       </c>
@@ -27804,7 +27812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>22118880</v>
       </c>
@@ -27839,7 +27847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>22793588</v>
       </c>
@@ -27874,7 +27882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>22988751</v>
       </c>
@@ -27909,7 +27917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>22358427</v>
       </c>
@@ -27944,7 +27952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>22747199</v>
       </c>
@@ -27979,7 +27987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>22779855</v>
       </c>
@@ -28014,7 +28022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>22660270</v>
       </c>
@@ -28049,7 +28057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>22988260</v>
       </c>
@@ -28084,7 +28092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>22496151</v>
       </c>
@@ -28119,7 +28127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>22765147</v>
       </c>
@@ -28154,7 +28162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>22849376</v>
       </c>
@@ -28189,7 +28197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>22885885</v>
       </c>
@@ -28224,7 +28232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>22300568</v>
       </c>
@@ -28259,7 +28267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>22857553</v>
       </c>
@@ -28294,7 +28302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>22509953</v>
       </c>
@@ -28329,7 +28337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>22577964</v>
       </c>
@@ -28364,7 +28372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>22358305</v>
       </c>
@@ -28399,7 +28407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>22201378</v>
       </c>
@@ -28434,7 +28442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>22685622</v>
       </c>
@@ -28469,7 +28477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>22679490</v>
       </c>
@@ -28504,7 +28512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>22322542</v>
       </c>
@@ -28539,7 +28547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>22893739</v>
       </c>
@@ -28574,7 +28582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>22370826</v>
       </c>
@@ -28609,7 +28617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>22915690</v>
       </c>
@@ -28644,7 +28652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>22487359</v>
       </c>
@@ -28679,7 +28687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>22513183</v>
       </c>
@@ -28714,7 +28722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>22410313</v>
       </c>
@@ -28749,7 +28757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>22998518</v>
       </c>
@@ -28784,7 +28792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>22620105</v>
       </c>
@@ -28819,7 +28827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>22365447</v>
       </c>
@@ -28854,7 +28862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>22294362</v>
       </c>
@@ -28889,7 +28897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>22844102</v>
       </c>
@@ -28924,7 +28932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>22689284</v>
       </c>
@@ -28959,7 +28967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>22756851</v>
       </c>
@@ -28994,7 +29002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>22958651</v>
       </c>
@@ -29029,7 +29037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>22545795</v>
       </c>
@@ -29064,7 +29072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>22984542</v>
       </c>
@@ -29099,7 +29107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>22265488</v>
       </c>
@@ -29134,7 +29142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>22563694</v>
       </c>
@@ -29169,7 +29177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>22255149</v>
       </c>
@@ -29204,7 +29212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>22953317</v>
       </c>
@@ -29239,7 +29247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>22979780</v>
       </c>
@@ -29274,7 +29282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>22815124</v>
       </c>
@@ -29309,7 +29317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>22640649</v>
       </c>
@@ -29344,7 +29352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>22495462</v>
       </c>
@@ -29379,7 +29387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>22177432</v>
       </c>
@@ -29414,7 +29422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>22594362</v>
       </c>
@@ -29449,7 +29457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>22924685</v>
       </c>
@@ -29484,7 +29492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>22423698</v>
       </c>
@@ -29519,7 +29527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>22553079</v>
       </c>
@@ -29554,7 +29562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>22791150</v>
       </c>
@@ -29589,7 +29597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>22610785</v>
       </c>
@@ -29624,7 +29632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>22681076</v>
       </c>
@@ -29659,7 +29667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>22597824</v>
       </c>
@@ -29694,7 +29702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>22694403</v>
       </c>
@@ -29729,7 +29737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>22639621</v>
       </c>
@@ -29764,7 +29772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>22370970</v>
       </c>
@@ -29799,7 +29807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>22292412</v>
       </c>
@@ -29834,7 +29842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>22189528</v>
       </c>
@@ -29869,7 +29877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>22881965</v>
       </c>
@@ -29904,7 +29912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>22162228</v>
       </c>
@@ -29939,7 +29947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>22708756</v>
       </c>
@@ -29974,7 +29982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>22947420</v>
       </c>
@@ -30009,7 +30017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>22148130</v>
       </c>
@@ -30044,7 +30052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>22172278</v>
       </c>
@@ -30079,7 +30087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>22453832</v>
       </c>
@@ -30114,7 +30122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>22270099</v>
       </c>
@@ -30149,7 +30157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>22189834</v>
       </c>
@@ -30184,7 +30192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>22798345</v>
       </c>
@@ -30219,7 +30227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>22847577</v>
       </c>
@@ -30254,7 +30262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>22784671</v>
       </c>
@@ -30289,7 +30297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>22667184</v>
       </c>
@@ -30324,7 +30332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>22560882</v>
       </c>
@@ -30359,7 +30367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>22832320</v>
       </c>
@@ -30394,7 +30402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>22231614</v>
       </c>
@@ -30429,7 +30437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>22688057</v>
       </c>
@@ -30464,7 +30472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>22260510</v>
       </c>
@@ -30499,7 +30507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>22422633</v>
       </c>
@@ -30534,7 +30542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>22624163</v>
       </c>
@@ -30569,7 +30577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>22412463</v>
       </c>
@@ -30604,7 +30612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>22712997</v>
       </c>
@@ -30639,7 +30647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>22169138</v>
       </c>
@@ -30674,7 +30682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>22743721</v>
       </c>
@@ -30709,7 +30717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>22402980</v>
       </c>
@@ -30744,7 +30752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>22314390</v>
       </c>
@@ -30779,7 +30787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>22150789</v>
       </c>
@@ -30814,7 +30822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>22682753</v>
       </c>
@@ -30849,7 +30857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>22600979</v>
       </c>
@@ -30884,7 +30892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>22800809</v>
       </c>
@@ -30919,7 +30927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>22911967</v>
       </c>
@@ -30954,7 +30962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>22992738</v>
       </c>
@@ -30989,7 +30997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>22184686</v>
       </c>
@@ -31024,7 +31032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>22993119</v>
       </c>
@@ -31059,7 +31067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>22206286</v>
       </c>
@@ -31094,7 +31102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A791">
         <v>22884529</v>
       </c>
@@ -31129,7 +31137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A792">
         <v>22427534</v>
       </c>
@@ -31164,7 +31172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A793">
         <v>22782995</v>
       </c>
@@ -31199,7 +31207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>22959426</v>
       </c>
@@ -31234,7 +31242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A795">
         <v>22219530</v>
       </c>
@@ -31269,7 +31277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>22532458</v>
       </c>
@@ -31304,7 +31312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A797">
         <v>22478192</v>
       </c>
@@ -31339,7 +31347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A798">
         <v>22425322</v>
       </c>
@@ -31374,7 +31382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>22979612</v>
       </c>
@@ -31409,7 +31417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>22257400</v>
       </c>
@@ -31444,7 +31452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A801">
         <v>22349797</v>
       </c>
@@ -31479,7 +31487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>22376209</v>
       </c>
@@ -31514,7 +31522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A803">
         <v>22803272</v>
       </c>
@@ -31549,7 +31557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A804">
         <v>22419730</v>
       </c>
@@ -31584,7 +31592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A805">
         <v>22488148</v>
       </c>
@@ -31619,7 +31627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>22989261</v>
       </c>
@@ -31654,7 +31662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A807">
         <v>22430498</v>
       </c>
@@ -31689,7 +31697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>22482889</v>
       </c>
@@ -31724,7 +31732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A809">
         <v>22527721</v>
       </c>
@@ -31759,7 +31767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A810">
         <v>22768217</v>
       </c>
@@ -31794,7 +31802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A811">
         <v>22167500</v>
       </c>
@@ -31829,7 +31837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A812">
         <v>22111891</v>
       </c>
@@ -31864,7 +31872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A813">
         <v>22677673</v>
       </c>
@@ -31899,7 +31907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>22409149</v>
       </c>
@@ -31934,7 +31942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A815">
         <v>22695655</v>
       </c>
@@ -31969,7 +31977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A816">
         <v>22426867</v>
       </c>
@@ -32004,7 +32012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A817">
         <v>22531804</v>
       </c>
@@ -32039,7 +32047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A818">
         <v>22153370</v>
       </c>
@@ -32074,7 +32082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A819">
         <v>22340272</v>
       </c>
@@ -32109,7 +32117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A820">
         <v>22912266</v>
       </c>
@@ -32144,7 +32152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A821">
         <v>22143512</v>
       </c>
@@ -32179,7 +32187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A822">
         <v>22648076</v>
       </c>
@@ -32214,7 +32222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A823">
         <v>22582677</v>
       </c>
@@ -32249,7 +32257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A824">
         <v>22852154</v>
       </c>
@@ -32284,7 +32292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A825">
         <v>22219215</v>
       </c>
@@ -32319,7 +32327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A826">
         <v>22392260</v>
       </c>
@@ -32354,7 +32362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A827">
         <v>22368980</v>
       </c>
@@ -32389,7 +32397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A828">
         <v>22128744</v>
       </c>
@@ -32424,7 +32432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A829">
         <v>22222853</v>
       </c>
@@ -32459,7 +32467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A830">
         <v>22381645</v>
       </c>
@@ -32494,7 +32502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A831">
         <v>22419411</v>
       </c>
@@ -32529,7 +32537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A832">
         <v>22535139</v>
       </c>
@@ -32564,7 +32572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A833">
         <v>22263856</v>
       </c>
@@ -32599,7 +32607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A834">
         <v>22224429</v>
       </c>
@@ -32634,7 +32642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A835">
         <v>22137978</v>
       </c>
@@ -32669,7 +32677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A836">
         <v>22293162</v>
       </c>
@@ -32704,7 +32712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A837">
         <v>22982481</v>
       </c>
@@ -32739,7 +32747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A838">
         <v>22649033</v>
       </c>
@@ -32774,7 +32782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A839">
         <v>22506366</v>
       </c>
@@ -32809,7 +32817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A840">
         <v>22815965</v>
       </c>
@@ -32844,7 +32852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A841">
         <v>22605897</v>
       </c>
@@ -32879,7 +32887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A842">
         <v>22529344</v>
       </c>
@@ -32914,7 +32922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A843">
         <v>22174469</v>
       </c>
@@ -32949,7 +32957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A844">
         <v>22926925</v>
       </c>
@@ -32984,7 +32992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A845">
         <v>22334207</v>
       </c>
@@ -33019,7 +33027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A846">
         <v>22429281</v>
       </c>
@@ -33054,7 +33062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A847">
         <v>22648073</v>
       </c>
@@ -33089,7 +33097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A848">
         <v>22367582</v>
       </c>
@@ -33124,7 +33132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A849">
         <v>22974861</v>
       </c>
@@ -33159,7 +33167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A850">
         <v>22602112</v>
       </c>
@@ -33194,7 +33202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A851">
         <v>22879863</v>
       </c>
@@ -33229,7 +33237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A852">
         <v>22264931</v>
       </c>
@@ -33264,7 +33272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A853">
         <v>22143874</v>
       </c>
@@ -33299,7 +33307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A854">
         <v>22720243</v>
       </c>
@@ -33334,7 +33342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A855">
         <v>22300475</v>
       </c>
@@ -33369,7 +33377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A856">
         <v>22749300</v>
       </c>
@@ -33404,7 +33412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A857">
         <v>22723059</v>
       </c>
@@ -33439,7 +33447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A858">
         <v>22464866</v>
       </c>
@@ -33474,7 +33482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A859">
         <v>22610196</v>
       </c>
@@ -33509,7 +33517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A860">
         <v>22509479</v>
       </c>
@@ -33544,7 +33552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A861">
         <v>22657219</v>
       </c>
@@ -33579,7 +33587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A862">
         <v>22287710</v>
       </c>
@@ -33614,7 +33622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A863">
         <v>22771207</v>
       </c>
@@ -33649,7 +33657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A864">
         <v>22136403</v>
       </c>
@@ -33684,7 +33692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A865">
         <v>22447034</v>
       </c>
@@ -33719,7 +33727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A866">
         <v>22821924</v>
       </c>
@@ -33754,7 +33762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A867">
         <v>22125956</v>
       </c>
@@ -33789,7 +33797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A868">
         <v>22874653</v>
       </c>
@@ -33824,7 +33832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A869">
         <v>22158193</v>
       </c>
@@ -33859,7 +33867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A870">
         <v>22544099</v>
       </c>
@@ -33894,7 +33902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A871">
         <v>22394906</v>
       </c>
@@ -33929,7 +33937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A872">
         <v>22762620</v>
       </c>
@@ -33964,7 +33972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A873">
         <v>22449843</v>
       </c>
@@ -33999,7 +34007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A874">
         <v>22475130</v>
       </c>
@@ -34034,7 +34042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A875">
         <v>22311411</v>
       </c>
@@ -34069,7 +34077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A876">
         <v>22182881</v>
       </c>
@@ -34104,7 +34112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A877">
         <v>22764631</v>
       </c>
@@ -34139,7 +34147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A878">
         <v>22654585</v>
       </c>
@@ -34174,7 +34182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A879">
         <v>22235090</v>
       </c>
@@ -34209,7 +34217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A880">
         <v>22783990</v>
       </c>
@@ -34244,7 +34252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A881">
         <v>22598940</v>
       </c>
@@ -34279,7 +34287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A882">
         <v>22899844</v>
       </c>
@@ -34314,7 +34322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A883">
         <v>22334926</v>
       </c>
@@ -34349,7 +34357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A884">
         <v>22687040</v>
       </c>
@@ -34384,7 +34392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A885">
         <v>22626821</v>
       </c>
@@ -34419,7 +34427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A886">
         <v>22957756</v>
       </c>
@@ -34454,7 +34462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A887">
         <v>22784967</v>
       </c>
@@ -34489,7 +34497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A888">
         <v>22896130</v>
       </c>
@@ -34524,7 +34532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A889">
         <v>22296393</v>
       </c>
@@ -34559,7 +34567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A890">
         <v>22587142</v>
       </c>
@@ -34594,7 +34602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A891">
         <v>22473054</v>
       </c>
@@ -34629,7 +34637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A892">
         <v>22575773</v>
       </c>
@@ -34664,7 +34672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A893">
         <v>22750984</v>
       </c>
@@ -34699,7 +34707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A894">
         <v>22419945</v>
       </c>
@@ -34734,7 +34742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A895">
         <v>22788394</v>
       </c>
@@ -34769,7 +34777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A896">
         <v>22213833</v>
       </c>
@@ -34804,7 +34812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A897">
         <v>22537210</v>
       </c>
@@ -34839,7 +34847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A898">
         <v>22105428</v>
       </c>
@@ -34874,7 +34882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A899">
         <v>22687494</v>
       </c>
@@ -34909,7 +34917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A900">
         <v>22674436</v>
       </c>
@@ -34944,7 +34952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A901">
         <v>22683045</v>
       </c>
@@ -34979,7 +34987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A902">
         <v>22183546</v>
       </c>
@@ -35014,7 +35022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A903">
         <v>22382999</v>
       </c>
@@ -35049,7 +35057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A904">
         <v>22540795</v>
       </c>
@@ -35084,7 +35092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A905">
         <v>22911260</v>
       </c>
@@ -35119,7 +35127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A906">
         <v>22480621</v>
       </c>
@@ -35154,7 +35162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A907">
         <v>22541051</v>
       </c>
@@ -35189,7 +35197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A908">
         <v>22321087</v>
       </c>
@@ -35224,7 +35232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A909">
         <v>22141325</v>
       </c>
@@ -35259,7 +35267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A910">
         <v>22358712</v>
       </c>
@@ -35294,7 +35302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A911">
         <v>22202014</v>
       </c>
@@ -35329,7 +35337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A912">
         <v>22591175</v>
       </c>
@@ -35364,7 +35372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A913">
         <v>22547422</v>
       </c>
@@ -35399,7 +35407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A914">
         <v>22921886</v>
       </c>
@@ -35434,7 +35442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A915">
         <v>22746875</v>
       </c>
@@ -35469,7 +35477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A916">
         <v>22787563</v>
       </c>
@@ -35504,7 +35512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A917">
         <v>22379117</v>
       </c>
@@ -35539,7 +35547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A918">
         <v>22121096</v>
       </c>
@@ -35574,7 +35582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A919">
         <v>22616957</v>
       </c>
@@ -35609,7 +35617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A920">
         <v>22281320</v>
       </c>
@@ -35644,7 +35652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A921">
         <v>22482310</v>
       </c>
@@ -35679,7 +35687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A922">
         <v>22429190</v>
       </c>
@@ -35714,7 +35722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A923">
         <v>22483078</v>
       </c>
@@ -35749,7 +35757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A924">
         <v>22787591</v>
       </c>
@@ -35784,7 +35792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A925">
         <v>22204694</v>
       </c>
@@ -35819,7 +35827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A926">
         <v>22309080</v>
       </c>
@@ -35854,7 +35862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A927">
         <v>22103915</v>
       </c>
@@ -35889,7 +35897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A928">
         <v>22608026</v>
       </c>
@@ -35924,7 +35932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A929">
         <v>22405641</v>
       </c>
@@ -35959,7 +35967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A930">
         <v>22947473</v>
       </c>
@@ -35994,7 +36002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A931">
         <v>22364927</v>
       </c>
@@ -36029,7 +36037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A932">
         <v>22882291</v>
       </c>
@@ -36064,7 +36072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A933">
         <v>22393716</v>
       </c>
@@ -36099,7 +36107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A934">
         <v>22234930</v>
       </c>
@@ -36134,7 +36142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A935">
         <v>22147769</v>
       </c>
@@ -36169,7 +36177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A936">
         <v>22192308</v>
       </c>
@@ -36204,7 +36212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A937">
         <v>22683870</v>
       </c>
@@ -36239,7 +36247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A938">
         <v>22480356</v>
       </c>
@@ -36274,7 +36282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A939">
         <v>22480043</v>
       </c>
@@ -36309,7 +36317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A940">
         <v>22204485</v>
       </c>
@@ -36344,7 +36352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A941">
         <v>22702500</v>
       </c>
@@ -36379,7 +36387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A942">
         <v>22630620</v>
       </c>
@@ -36414,7 +36422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A943">
         <v>22196653</v>
       </c>
@@ -36449,7 +36457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A944">
         <v>22507407</v>
       </c>
@@ -36484,7 +36492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A945">
         <v>22576339</v>
       </c>
@@ -36519,7 +36527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A946">
         <v>22179967</v>
       </c>
@@ -36554,7 +36562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A947">
         <v>22458368</v>
       </c>
@@ -36589,7 +36597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A948">
         <v>22622599</v>
       </c>
@@ -36624,7 +36632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A949">
         <v>22436451</v>
       </c>
@@ -36659,7 +36667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A950">
         <v>22390304</v>
       </c>
@@ -36694,7 +36702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A951">
         <v>22987674</v>
       </c>
@@ -36729,7 +36737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A952">
         <v>22688818</v>
       </c>
@@ -36764,7 +36772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A953">
         <v>22721510</v>
       </c>
@@ -36799,7 +36807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A954">
         <v>22804610</v>
       </c>
@@ -36834,7 +36842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A955">
         <v>22454749</v>
       </c>
@@ -36869,7 +36877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A956">
         <v>22529301</v>
       </c>
@@ -36904,7 +36912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A957">
         <v>22483913</v>
       </c>
@@ -36939,7 +36947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A958">
         <v>22817981</v>
       </c>
@@ -36974,7 +36982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A959">
         <v>22721013</v>
       </c>
@@ -37009,7 +37017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A960">
         <v>22526869</v>
       </c>
@@ -37044,7 +37052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A961">
         <v>22415859</v>
       </c>
@@ -37079,7 +37087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A962">
         <v>22750054</v>
       </c>
@@ -37114,7 +37122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A963">
         <v>22492043</v>
       </c>
@@ -37149,7 +37157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="964" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A964">
         <v>22831962</v>
       </c>
@@ -37184,7 +37192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A965">
         <v>22175172</v>
       </c>
@@ -37219,7 +37227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A966">
         <v>22946065</v>
       </c>
@@ -37254,7 +37262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A967">
         <v>22760348</v>
       </c>
@@ -37289,7 +37297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A968">
         <v>22135874</v>
       </c>
@@ -37324,7 +37332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="969" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A969">
         <v>22477433</v>
       </c>
@@ -37359,7 +37367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="970" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A970">
         <v>22627177</v>
       </c>
@@ -37394,7 +37402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="971" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A971">
         <v>22801860</v>
       </c>
@@ -37429,7 +37437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="972" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A972">
         <v>22630221</v>
       </c>
@@ -37464,7 +37472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="973" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A973">
         <v>22869282</v>
       </c>
@@ -37499,7 +37507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="974" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A974">
         <v>22891750</v>
       </c>
@@ -37534,7 +37542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="975" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A975">
         <v>22800143</v>
       </c>
@@ -37569,7 +37577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="976" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A976">
         <v>22995946</v>
       </c>
@@ -37604,7 +37612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="977" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A977">
         <v>22582615</v>
       </c>
@@ -37639,7 +37647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="978" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A978">
         <v>22448324</v>
       </c>
@@ -37674,7 +37682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="979" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A979">
         <v>22470109</v>
       </c>
@@ -37709,7 +37717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A980">
         <v>22527215</v>
       </c>
@@ -37744,7 +37752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A981">
         <v>22431386</v>
       </c>
@@ -37779,7 +37787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="982" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A982">
         <v>22793681</v>
       </c>
@@ -37814,7 +37822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A983">
         <v>22805145</v>
       </c>
@@ -37849,7 +37857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A984">
         <v>22329569</v>
       </c>
@@ -37884,7 +37892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A985">
         <v>22880181</v>
       </c>
@@ -37919,7 +37927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A986">
         <v>22272491</v>
       </c>
@@ -37954,7 +37962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="987" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A987">
         <v>22918917</v>
       </c>
@@ -37989,7 +37997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="988" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A988">
         <v>22551762</v>
       </c>
@@ -38024,7 +38032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="989" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A989">
         <v>22296725</v>
       </c>
@@ -38059,7 +38067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="990" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A990">
         <v>22184263</v>
       </c>
@@ -38094,7 +38102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="991" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A991">
         <v>22646359</v>
       </c>
@@ -38129,7 +38137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="992" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A992">
         <v>22282570</v>
       </c>
@@ -38164,7 +38172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="993" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A993">
         <v>22172354</v>
       </c>
@@ -38199,7 +38207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="994" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A994">
         <v>22878584</v>
       </c>
@@ -38234,7 +38242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="995" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A995">
         <v>22367378</v>
       </c>
@@ -38269,7 +38277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="996" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A996">
         <v>22864427</v>
       </c>
@@ -38304,7 +38312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="997" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A997">
         <v>22270943</v>
       </c>
@@ -38339,7 +38347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="998" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A998">
         <v>22621272</v>
       </c>
@@ -38374,7 +38382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="999" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A999">
         <v>22340967</v>
       </c>
@@ -38409,7 +38417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1000" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1000">
         <v>22705633</v>
       </c>
@@ -38444,7 +38452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1001" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1001">
         <v>22134070</v>
       </c>
